--- a/xlsx/country_comparison/gcs_important_mean.xlsx
+++ b/xlsx/country_comparison/gcs_important_mean.xlsx
@@ -426,22 +426,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.840214431503086</v>
+        <v>0.227987442866985</v>
       </c>
       <c r="C2" t="n">
-        <v>1.08303390286476</v>
+        <v>0.908388657222458</v>
       </c>
       <c r="D2" t="n">
-        <v>1.16414887159561</v>
+        <v>1.06954675481358</v>
       </c>
       <c r="E2" t="n">
-        <v>1.1213896114462</v>
+        <v>0.910832714319771</v>
       </c>
       <c r="F2" t="n">
-        <v>1.09091245922179</v>
+        <v>0.794800886664094</v>
       </c>
       <c r="G2" t="n">
-        <v>0.994186179133232</v>
+        <v>0.851526975572939</v>
       </c>
     </row>
     <row r="3">
@@ -449,22 +449,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.971968883007177</v>
+        <v>1.29012170421717</v>
       </c>
       <c r="C3" t="n">
-        <v>0.491188453953777</v>
+        <v>0.71373160713859</v>
       </c>
       <c r="D3" t="n">
-        <v>0.326481814045042</v>
+        <v>0.496042772941757</v>
       </c>
       <c r="E3" t="n">
-        <v>0.490583370104542</v>
+        <v>0.799851834930106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.456849444085595</v>
+        <v>0.834655917235992</v>
       </c>
       <c r="G3" t="n">
-        <v>0.598481967036809</v>
+        <v>0.771063245736172</v>
       </c>
     </row>
     <row r="4">
@@ -472,22 +472,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.835637154503282</v>
+        <v>1.10926326827653</v>
       </c>
       <c r="C4" t="n">
-        <v>0.376100794334335</v>
+        <v>0.51466722089331</v>
       </c>
       <c r="D4" t="n">
-        <v>0.206330805591796</v>
+        <v>0.211105836973105</v>
       </c>
       <c r="E4" t="n">
-        <v>0.465724961701286</v>
+        <v>0.74432353515363</v>
       </c>
       <c r="F4" t="n">
-        <v>0.350453783387047</v>
+        <v>0.723279278626472</v>
       </c>
       <c r="G4" t="n">
-        <v>0.44792552721857</v>
+        <v>0.576496484207996</v>
       </c>
     </row>
     <row r="5">
@@ -495,22 +495,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.779551822333309</v>
+        <v>0.654512957312685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.865862872738852</v>
+        <v>0.798072488788741</v>
       </c>
       <c r="D5" t="n">
-        <v>0.971402033446974</v>
+        <v>0.968025998751942</v>
       </c>
       <c r="E5" t="n">
-        <v>0.88129752368892</v>
+        <v>0.723116256852647</v>
       </c>
       <c r="F5" t="n">
-        <v>0.818603743348901</v>
+        <v>0.817536514958359</v>
       </c>
       <c r="G5" t="n">
-        <v>0.820093880151065</v>
+        <v>0.70834869538422</v>
       </c>
     </row>
     <row r="6">
@@ -518,22 +518,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.856788525138567</v>
+        <v>0.379813210645749</v>
       </c>
       <c r="C6" t="n">
-        <v>1.06535189129941</v>
+        <v>0.859235379980694</v>
       </c>
       <c r="D6" t="n">
-        <v>1.17771911690508</v>
+        <v>1.11214525010227</v>
       </c>
       <c r="E6" t="n">
-        <v>1.02876851600192</v>
+        <v>0.69084106402753</v>
       </c>
       <c r="F6" t="n">
-        <v>1.08027653324676</v>
+        <v>0.870990343302749</v>
       </c>
       <c r="G6" t="n">
-        <v>0.994771609908956</v>
+        <v>0.780455656279622</v>
       </c>
     </row>
     <row r="7">
@@ -541,22 +541,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.797030182441814</v>
+        <v>0.524413356901235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.620208326067206</v>
+        <v>0.585625605236319</v>
       </c>
       <c r="D7" t="n">
-        <v>0.784593573446295</v>
+        <v>0.728948201773656</v>
       </c>
       <c r="E7" t="n">
-        <v>0.447093763377283</v>
+        <v>0.383382498494704</v>
       </c>
       <c r="F7" t="n">
-        <v>0.815458781466292</v>
+        <v>1.05151585827848</v>
       </c>
       <c r="G7" t="n">
-        <v>0.580190739637466</v>
+        <v>0.52659867237478</v>
       </c>
     </row>
     <row r="8">
@@ -564,22 +564,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.937740355714554</v>
+        <v>0.514200814604642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.943111292968609</v>
+        <v>0.779933020673987</v>
       </c>
       <c r="D8" t="n">
-        <v>0.933043550222372</v>
+        <v>0.823717709544782</v>
       </c>
       <c r="E8" t="n">
-        <v>0.925833104071589</v>
+        <v>0.709265859816006</v>
       </c>
       <c r="F8" t="n">
-        <v>1.05735180814457</v>
+        <v>0.93289574312254</v>
       </c>
       <c r="G8" t="n">
-        <v>0.90842599377814</v>
+        <v>0.734479715096122</v>
       </c>
     </row>
     <row r="9">
@@ -587,22 +587,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.861976151184712</v>
+        <v>0.855893363074046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.751389207554992</v>
+        <v>0.797391506851663</v>
       </c>
       <c r="D9" t="n">
-        <v>0.926342304261278</v>
+        <v>0.980991011502419</v>
       </c>
       <c r="E9" t="n">
-        <v>0.571649612551668</v>
+        <v>0.671367010266482</v>
       </c>
       <c r="F9" t="n">
-        <v>0.881091590441397</v>
+        <v>1.08020704088589</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6805059208842</v>
+        <v>0.581903795122262</v>
       </c>
     </row>
     <row r="10">
@@ -610,22 +610,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.956411893867783</v>
+        <v>1.19208483609783</v>
       </c>
       <c r="C10" t="n">
-        <v>0.858677356912053</v>
+        <v>0.949770482384599</v>
       </c>
       <c r="D10" t="n">
-        <v>0.874004048647038</v>
+        <v>0.9875534552433</v>
       </c>
       <c r="E10" t="n">
-        <v>0.722391948574298</v>
+        <v>0.950191641790629</v>
       </c>
       <c r="F10" t="n">
-        <v>0.978759841180472</v>
+        <v>1.10893708753354</v>
       </c>
       <c r="G10" t="n">
-        <v>0.938257452436272</v>
+        <v>0.839781045872143</v>
       </c>
     </row>
     <row r="11">
@@ -633,22 +633,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.88491166447992</v>
+        <v>1.22411264136072</v>
       </c>
       <c r="C11" t="n">
-        <v>0.601156431507919</v>
+        <v>0.69929992994411</v>
       </c>
       <c r="D11" t="n">
-        <v>0.68276325887215</v>
+        <v>0.735244891461985</v>
       </c>
       <c r="E11" t="n">
-        <v>0.371178672841436</v>
+        <v>0.580082836498676</v>
       </c>
       <c r="F11" t="n">
-        <v>0.823327298881994</v>
+        <v>1.04728151255664</v>
       </c>
       <c r="G11" t="n">
-        <v>0.629511124697729</v>
+        <v>0.614426923044058</v>
       </c>
     </row>
     <row r="12">
@@ -656,22 +656,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1.25631353829707</v>
+        <v>1.33752926205328</v>
       </c>
       <c r="C12" t="n">
-        <v>0.981156889529825</v>
+        <v>0.999997430366336</v>
       </c>
       <c r="D12" t="n">
-        <v>1.17277503777523</v>
+        <v>1.16673423948734</v>
       </c>
       <c r="E12" t="n">
-        <v>0.510686451455885</v>
+        <v>0.54040163604503</v>
       </c>
       <c r="F12" t="n">
-        <v>1.25509842093364</v>
+        <v>1.34326922607862</v>
       </c>
       <c r="G12" t="n">
-        <v>1.19158174557919</v>
+        <v>1.14700450104329</v>
       </c>
     </row>
   </sheetData>
